--- a/demo/py_outputs/villages/Fatehabad_Source_Map.xlsx
+++ b/demo/py_outputs/villages/Fatehabad_Source_Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L718"/>
+  <dimension ref="A1:M718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>28.7665547228984</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>28.74773377015623</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>27.47192186673536</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>27.07448833169311</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +781,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>27.02940088171069</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +838,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>25.5631099578193</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>24.60699032987715</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +952,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>28.20152756095419</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +1009,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>29.68902247174365</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1066,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>28.37972447759752</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>27.47279244034855</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>26.41037426910161</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1237,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>28.89379421809288</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1294,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>28.11419574505215</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1351,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>24.33860210839261</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1408,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>24.31327969397908</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1465,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M18" t="n">
+        <v>22.82127119024312</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1466,6 +1522,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>29.40871758395453</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1579,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>29.99035300043751</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1636,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>29.1229943097583</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1693,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>29.44186428570988</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1750,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>28.19690589544059</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1807,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>26.65509782272537</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1864,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>27.25229265021231</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1921,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>28.39730830091549</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1978,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>29.39267351558181</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +2035,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>28.03924888515814</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2092,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>26.38695768765245</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2149,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>29.26157204950585</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2206,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>27.93982757008292</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2263,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>27.59545028502517</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2222,6 +2320,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M33" t="n">
+        <v>26.70797113066902</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2276,6 +2377,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>25.01437824481119</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2434,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>25.8467885650935</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2491,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>25.6672641096645</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2548,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>24.77003782473401</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2605,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>22.42312429946307</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2662,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>25.05768919821899</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2719,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M40" t="n">
+        <v>24.47830006311866</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2654,6 +2776,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M41" t="n">
+        <v>22.96592487421778</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2708,6 +2833,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>24.88472107206847</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2890,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M43" t="n">
+        <v>23.67262630527722</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2947,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M44" t="n">
+        <v>21.40993776037549</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +3004,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M45" t="n">
+        <v>20.70167253759682</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +3061,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M46" t="n">
+        <v>19.76537563554363</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2978,6 +3118,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M47" t="n">
+        <v>26.44550316623218</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3032,6 +3175,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>26.53096757896549</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3232,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>25.41254434054188</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3289,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M50" t="n">
+        <v>24.73374560146705</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3346,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M51" t="n">
+        <v>22.43870709412498</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3403,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>22.99570729702697</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3302,6 +3460,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M53" t="n">
+        <v>21.8924767832346</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3356,6 +3517,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M54" t="n">
+        <v>20.44696263101465</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3410,6 +3574,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M55" t="n">
+        <v>28.05499616366605</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3464,6 +3631,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>29.87927492447281</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3518,6 +3688,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M57" t="n">
+        <v>27.58829159987447</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3572,6 +3745,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M58" t="n">
+        <v>26.84093663104699</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3626,6 +3802,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>28.77848345198095</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3859,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M60" t="n">
+        <v>27.55450984100928</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3916,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>26.37054395377804</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3973,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>24.64985477686563</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3842,6 +4030,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>24.53845505237789</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3896,6 +4087,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>22.99226417048844</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4144,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>23.65807612294629</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4004,6 +4201,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M66" t="n">
+        <v>22.45355895676651</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4058,6 +4258,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>21.65263795683272</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4315,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>21.7823460544143</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4372,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M69" t="n">
+        <v>19.79053571700033</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4429,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M70" t="n">
+        <v>21.04191885381774</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4274,6 +4486,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M71" t="n">
+        <v>19.91194853036856</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4328,6 +4543,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>17.99861314362595</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4600,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>20.71405791124878</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4657,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>20.49522843739395</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4714,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>18.45620221834434</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4771,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>18.56343837286851</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4598,6 +4828,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M77" t="n">
+        <v>15.96757770708962</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4652,6 +4885,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M78" t="n">
+        <v>16.88754925073731</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4942,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>29.21370418382425</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4999,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M80" t="n">
+        <v>29.17010319709972</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4814,6 +5056,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M81" t="n">
+        <v>29.82222215747874</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4868,6 +5113,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M82" t="n">
+        <v>29.12483431624931</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5170,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>28.06591889464967</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5227,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>27.65367926245881</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5030,6 +5284,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M85" t="n">
+        <v>27.01391600149168</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5084,6 +5341,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M86" t="n">
+        <v>26.35260705532322</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5138,6 +5398,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>26.17217729187369</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5455,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M88" t="n">
+        <v>26.17341234587001</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5512,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M89" t="n">
+        <v>28.34940359212423</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5569,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>26.74250693686941</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5354,6 +5626,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M91" t="n">
+        <v>25.8230195809107</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5408,6 +5683,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M92" t="n">
+        <v>24.98778426326054</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5462,6 +5740,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>23.84365008836741</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5516,6 +5797,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M94" t="n">
+        <v>25.2457321642812</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5570,6 +5854,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M95" t="n">
+        <v>24.53164701092872</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5624,6 +5911,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M96" t="n">
+        <v>23.8277279596779</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5968,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>22.90542946258411</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5732,6 +6025,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M98" t="n">
+        <v>24.07385008424892</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5786,6 +6082,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M99" t="n">
+        <v>21.53140731130264</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +6139,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>29.5467420468917</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5894,6 +6196,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M101" t="n">
+        <v>29.70234899714302</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5948,6 +6253,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M102" t="n">
+        <v>28.51128555290631</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6310,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M103" t="n">
+        <v>29.80090178238651</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6056,6 +6367,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>28.27087787941342</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6110,6 +6424,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M105" t="n">
+        <v>27.22878270648229</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6164,6 +6481,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M106" t="n">
+        <v>26.52751048734973</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6218,6 +6538,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M107" t="n">
+        <v>26.65436723251332</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6272,6 +6595,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>24.09468612344773</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6326,6 +6652,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>22.16502364447291</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6380,6 +6709,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M110" t="n">
+        <v>23.12787948155602</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6434,6 +6766,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>25.61760997937124</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6488,6 +6823,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M112" t="n">
+        <v>24.61582091152567</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6542,6 +6880,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>23.99173865883789</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6596,6 +6937,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M114" t="n">
+        <v>21.63821850261648</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6650,6 +6994,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M115" t="n">
+        <v>23.32359698151931</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6704,6 +7051,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M116" t="n">
+        <v>27.75489924553953</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6758,6 +7108,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M117" t="n">
+        <v>24.91445551628343</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6812,6 +7165,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M118" t="n">
+        <v>23.53448216272995</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6866,6 +7222,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M119" t="n">
+        <v>22.59705116422127</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6920,6 +7279,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M120" t="n">
+        <v>24.42184745614161</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6974,6 +7336,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M121" t="n">
+        <v>25.91154619824392</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7028,6 +7393,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M122" t="n">
+        <v>23.56767060925035</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7082,6 +7450,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M123" t="n">
+        <v>21.0776507152237</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7136,6 +7507,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M124" t="n">
+        <v>21.01408270298156</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7190,6 +7564,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M125" t="n">
+        <v>18.4755107559612</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7244,6 +7621,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M126" t="n">
+        <v>20.19434740149775</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7298,6 +7678,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M127" t="n">
+        <v>21.07006858246222</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7352,6 +7735,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M128" t="n">
+        <v>19.90628381118279</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7406,6 +7792,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M129" t="n">
+        <v>19.29778476474249</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7460,6 +7849,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M130" t="n">
+        <v>18.6301666485624</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7514,6 +7906,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M131" t="n">
+        <v>19.49425456851058</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7565,8 +7960,11 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>20.92705647025806</v>
       </c>
     </row>
     <row r="133">
@@ -7622,6 +8020,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M133" t="n">
+        <v>19.82494065685623</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7676,6 +8077,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M134" t="n">
+        <v>19.03845567441869</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7730,6 +8134,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M135" t="n">
+        <v>17.85082260812639</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7784,6 +8191,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M136" t="n">
+        <v>17.66134703662865</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7838,6 +8248,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M137" t="n">
+        <v>15.7525870564064</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7892,6 +8305,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M138" t="n">
+        <v>15.52979920303389</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7946,6 +8362,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M139" t="n">
+        <v>14.5641111388917</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8000,6 +8419,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M140" t="n">
+        <v>13.84922363022806</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8054,6 +8476,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M141" t="n">
+        <v>13.20420725159853</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8108,6 +8533,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M142" t="n">
+        <v>18.18338500311303</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8162,6 +8590,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M143" t="n">
+        <v>15.93389546596536</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8216,6 +8647,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M144" t="n">
+        <v>14.21240225388966</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8270,6 +8704,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M145" t="n">
+        <v>14.45747022819953</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8324,6 +8761,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M146" t="n">
+        <v>16.32083889728611</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8375,8 +8815,11 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>16.41159223634706</v>
       </c>
     </row>
     <row r="148">
@@ -8432,6 +8875,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M148" t="n">
+        <v>16.80500098940881</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8486,6 +8932,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M149" t="n">
+        <v>17.50007535691191</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8540,6 +8989,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M150" t="n">
+        <v>18.07189296214726</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8594,6 +9046,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M151" t="n">
+        <v>18.39480866670399</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8648,6 +9103,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M152" t="n">
+        <v>17.99822525129315</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8702,6 +9160,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M153" t="n">
+        <v>14.77249973566169</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8756,6 +9217,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M154" t="n">
+        <v>19.31800872870839</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8810,6 +9274,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M155" t="n">
+        <v>21.01295977022113</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8864,6 +9331,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M156" t="n">
+        <v>19.23867377338076</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8918,6 +9388,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M157" t="n">
+        <v>17.98478872241146</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8972,6 +9445,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M158" t="n">
+        <v>18.18757667524721</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9026,6 +9502,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M159" t="n">
+        <v>17.27258947384884</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9080,6 +9559,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M160" t="n">
+        <v>16.4206040406474</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9131,8 +9613,11 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>16.20598362710908</v>
       </c>
     </row>
     <row r="162">
@@ -9185,8 +9670,11 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>12.99423246438151</v>
       </c>
     </row>
     <row r="163">
@@ -9242,6 +9730,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M163" t="n">
+        <v>14.19287415836383</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9296,6 +9787,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M164" t="n">
+        <v>15.00023262415134</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9350,6 +9844,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M165" t="n">
+        <v>12.54352684973756</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9404,6 +9901,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M166" t="n">
+        <v>11.59553344820763</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9455,8 +9955,11 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>9.988978650235431</v>
       </c>
     </row>
     <row r="168">
@@ -9509,8 +10012,11 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>8.762791775659394</v>
       </c>
     </row>
     <row r="169">
@@ -9566,6 +10072,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M169" t="n">
+        <v>10.86253622017979</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9620,6 +10129,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M170" t="n">
+        <v>13.82620083617615</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9671,8 +10183,11 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>11.95261144439331</v>
       </c>
     </row>
     <row r="172">
@@ -9725,8 +10240,11 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>9.388263262363596</v>
       </c>
     </row>
     <row r="173">
@@ -9782,6 +10300,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M173" t="n">
+        <v>8.396939185575279</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9836,6 +10357,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M174" t="n">
+        <v>10.59240794809151</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9890,6 +10414,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M175" t="n">
+        <v>6.928870103001162</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9944,6 +10471,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M176" t="n">
+        <v>7.888594385972066</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9998,6 +10528,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M177" t="n">
+        <v>7.633866159335601</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10049,8 +10582,11 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>6.382951756990072</v>
       </c>
     </row>
     <row r="179">
@@ -10106,6 +10642,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M179" t="n">
+        <v>6.278385038760646</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10160,6 +10699,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M180" t="n">
+        <v>6.637253561957191</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10214,6 +10756,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M181" t="n">
+        <v>7.242494016690818</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10268,6 +10813,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M182" t="n">
+        <v>5.060031756183865</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10319,8 +10867,11 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>3.819145605371094</v>
       </c>
     </row>
     <row r="184">
@@ -10376,6 +10927,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M184" t="n">
+        <v>5.633358624516497</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10430,6 +10984,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M185" t="n">
+        <v>5.260320252472741</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10484,6 +11041,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M186" t="n">
+        <v>6.497222510472871</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10538,6 +11098,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M187" t="n">
+        <v>9.618617573530852</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10592,6 +11155,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M188" t="n">
+        <v>10.08738585389816</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10646,6 +11212,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M189" t="n">
+        <v>11.84006912001419</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10700,6 +11269,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M190" t="n">
+        <v>4.733336425977904</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10751,8 +11323,11 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>3.332164304816484</v>
       </c>
     </row>
     <row r="192">
@@ -10808,6 +11383,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M192" t="n">
+        <v>2.790419661319736</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10859,8 +11437,11 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>2.184620082681926</v>
       </c>
     </row>
     <row r="194">
@@ -10916,6 +11497,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M194" t="n">
+        <v>2.276894313595355</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10970,6 +11554,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M195" t="n">
+        <v>3.042349916266129</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11024,6 +11611,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M196" t="n">
+        <v>2.142084922065591</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11078,6 +11668,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M197" t="n">
+        <v>1.734816748701215</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11132,6 +11725,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M198" t="n">
+        <v>2.750603934331254</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11186,6 +11782,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M199" t="n">
+        <v>3.749567661940851</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11240,6 +11839,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M200" t="n">
+        <v>3.510352992627677</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11291,8 +11893,11 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1.402608312053098</v>
       </c>
     </row>
     <row r="202">
@@ -11348,6 +11953,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M202" t="n">
+        <v>1.825806472341906</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11402,6 +12010,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M203" t="n">
+        <v>1.899359674305538</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11456,6 +12067,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M204" t="n">
+        <v>3.174480189487829</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11507,8 +12121,11 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>4.117244883881048</v>
       </c>
     </row>
     <row r="206">
@@ -11561,8 +12178,11 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>5.137977607934891</v>
       </c>
     </row>
     <row r="207">
@@ -11618,6 +12238,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M207" t="n">
+        <v>11.00897246813543</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11672,6 +12295,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M208" t="n">
+        <v>9.223389606002222</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11726,6 +12352,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M209" t="n">
+        <v>7.984830123417476</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11780,6 +12409,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M210" t="n">
+        <v>10.44310249577938</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11834,6 +12466,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M211" t="n">
+        <v>9.243716543138504</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11888,6 +12523,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M212" t="n">
+        <v>8.10208709474696</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11942,6 +12580,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M213" t="n">
+        <v>7.206419615825912</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11996,6 +12637,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M214" t="n">
+        <v>6.576575155395114</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12050,6 +12694,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M215" t="n">
+        <v>5.4953422270495</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12101,8 +12748,11 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>10.77029364894934</v>
       </c>
     </row>
     <row r="217">
@@ -12158,6 +12808,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M217" t="n">
+        <v>7.273024394784323</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12212,6 +12865,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M218" t="n">
+        <v>4.513064942808382</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12266,6 +12922,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M219" t="n">
+        <v>8.870868993018762</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12320,6 +12979,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M220" t="n">
+        <v>6.483690038361059</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12374,6 +13036,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M221" t="n">
+        <v>5.271615852844399</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12428,6 +13093,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M222" t="n">
+        <v>4.32228437655757</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12482,6 +13150,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M223" t="n">
+        <v>4.451145794522189</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12533,8 +13204,11 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>6.329309623929721</v>
       </c>
     </row>
     <row r="225">
@@ -12590,6 +13264,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M225" t="n">
+        <v>6.627332899075609</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12644,6 +13321,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M226" t="n">
+        <v>7.515665161465479</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12698,6 +13378,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M227" t="n">
+        <v>3.006039859717224</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12752,6 +13435,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M228" t="n">
+        <v>3.251026761639175</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12803,8 +13489,11 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>2.387828364972417</v>
       </c>
     </row>
     <row r="230">
@@ -12860,6 +13549,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M230" t="n">
+        <v>1.521789318459501</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12914,6 +13606,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M231" t="n">
+        <v>2.85871668783392</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12968,6 +13663,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M232" t="n">
+        <v>5.3626318573132</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13022,6 +13720,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M233" t="n">
+        <v>4.882618566720867</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13076,6 +13777,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M234" t="n">
+        <v>6.286925852885661</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13130,6 +13834,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M235" t="n">
+        <v>5.274825143541952</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13184,6 +13891,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M236" t="n">
+        <v>7.026331943139165</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13238,6 +13948,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M237" t="n">
+        <v>4.875574584994715</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13292,6 +14005,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M238" t="n">
+        <v>6.085911285299866</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13346,6 +14062,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M239" t="n">
+        <v>8.139990163935551</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13400,6 +14119,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M240" t="n">
+        <v>7.156540962153509</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13454,6 +14176,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M241" t="n">
+        <v>7.453968233063388</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13508,6 +14233,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M242" t="n">
+        <v>6.176225700686628</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13562,6 +14290,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M243" t="n">
+        <v>4.870171384207798</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13616,6 +14347,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M244" t="n">
+        <v>3.490027834131507</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13670,6 +14404,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M245" t="n">
+        <v>4.670424422097015</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13724,6 +14461,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M246" t="n">
+        <v>6.504447383098761</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13778,6 +14518,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M247" t="n">
+        <v>9.42775357803397</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13832,6 +14575,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M248" t="n">
+        <v>7.879222525825831</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13886,6 +14632,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M249" t="n">
+        <v>6.899845643357801</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13940,6 +14689,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M250" t="n">
+        <v>9.416594345334317</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13991,8 +14743,11 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>10.89862258595527</v>
       </c>
     </row>
     <row r="252">
@@ -14048,6 +14803,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M252" t="n">
+        <v>11.7030431991299</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14102,6 +14860,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M253" t="n">
+        <v>12.33102137576366</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14156,6 +14917,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M254" t="n">
+        <v>8.188129571937818</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14210,6 +14974,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M255" t="n">
+        <v>9.6897800856689</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14264,6 +15031,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M256" t="n">
+        <v>11.09939417041618</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14318,6 +15088,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M257" t="n">
+        <v>13.48774399218333</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14372,6 +15145,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M258" t="n">
+        <v>13.11496253509998</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14426,6 +15202,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M259" t="n">
+        <v>11.29115633530702</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14480,6 +15259,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M260" t="n">
+        <v>9.236211906026893</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14534,6 +15316,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M261" t="n">
+        <v>10.90735161301034</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14588,6 +15373,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M262" t="n">
+        <v>19.97876092947225</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14642,6 +15430,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M263" t="n">
+        <v>20.54420336032035</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14696,6 +15487,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M264" t="n">
+        <v>18.05096411877965</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14750,6 +15544,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M265" t="n">
+        <v>13.92399676429973</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14804,6 +15601,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M266" t="n">
+        <v>11.2460871189323</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14858,6 +15658,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M267" t="n">
+        <v>8.58664332077354</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14912,6 +15715,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M268" t="n">
+        <v>8.776894630581973</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14966,6 +15772,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M269" t="n">
+        <v>9.650927868318457</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15020,6 +15829,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M270" t="n">
+        <v>11.14472069020936</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15074,6 +15886,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M271" t="n">
+        <v>11.42371874990963</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15128,6 +15943,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M272" t="n">
+        <v>15.17989334155658</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15182,6 +16000,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M273" t="n">
+        <v>15.28172675213891</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15236,6 +16057,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M274" t="n">
+        <v>14.56188903299288</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15290,6 +16114,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M275" t="n">
+        <v>9.300047570877485</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15344,6 +16171,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M276" t="n">
+        <v>9.513952180033128</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15398,6 +16228,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M277" t="n">
+        <v>11.71302558814651</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15452,6 +16285,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M278" t="n">
+        <v>13.91396641711651</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15506,6 +16342,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M279" t="n">
+        <v>12.73809176022352</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15560,6 +16399,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M280" t="n">
+        <v>11.54501436957266</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15614,6 +16456,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M281" t="n">
+        <v>11.6837511436899</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15668,6 +16513,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M282" t="n">
+        <v>15.46750964912209</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15722,6 +16570,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M283" t="n">
+        <v>15.25748332617676</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15776,6 +16627,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M284" t="n">
+        <v>15.46998051389366</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15827,8 +16681,11 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M285" t="n">
+        <v>15.64062331443966</v>
       </c>
     </row>
     <row r="286">
@@ -15884,6 +16741,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M286" t="n">
+        <v>15.20529821158201</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15938,6 +16798,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M287" t="n">
+        <v>15.54803605020867</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15992,6 +16855,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M288" t="n">
+        <v>17.41661520408618</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16046,6 +16912,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M289" t="n">
+        <v>19.57844617751926</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16100,6 +16969,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M290" t="n">
+        <v>18.68753366349749</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16154,6 +17026,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M291" t="n">
+        <v>19.3310160808343</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16208,6 +17083,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M292" t="n">
+        <v>17.7209053008399</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16262,6 +17140,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M293" t="n">
+        <v>17.47768799942391</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16316,6 +17197,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M294" t="n">
+        <v>18.85632820675201</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16370,6 +17254,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M295" t="n">
+        <v>13.25824102075229</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16424,6 +17311,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M296" t="n">
+        <v>13.659972441513</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16478,6 +17368,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M297" t="n">
+        <v>15.1252285991114</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16532,6 +17425,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M298" t="n">
+        <v>15.91872415635687</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16586,6 +17482,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M299" t="n">
+        <v>16.77695921543943</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16640,6 +17539,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M300" t="n">
+        <v>17.83013014645806</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16694,6 +17596,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M301" t="n">
+        <v>19.25594622469449</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16748,6 +17653,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M302" t="n">
+        <v>19.66672325179942</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16802,6 +17710,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M303" t="n">
+        <v>19.40385987193438</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16856,6 +17767,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M304" t="n">
+        <v>18.20426911269355</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16910,6 +17824,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M305" t="n">
+        <v>21.77259157459338</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16964,6 +17881,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M306" t="n">
+        <v>21.36883678741627</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -17018,6 +17938,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M307" t="n">
+        <v>16.50070248546465</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -17072,6 +17995,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M308" t="n">
+        <v>19.6603832937016</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -17126,6 +18052,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M309" t="n">
+        <v>19.23744748399371</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -17180,6 +18109,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M310" t="n">
+        <v>20.70003645186608</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -17234,6 +18166,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M311" t="n">
+        <v>22.09472119279945</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17288,6 +18223,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M312" t="n">
+        <v>22.82029519717717</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17342,6 +18280,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M313" t="n">
+        <v>22.26176293257707</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -17396,6 +18337,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M314" t="n">
+        <v>24.18313277166517</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17450,6 +18394,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M315" t="n">
+        <v>20.29838660725546</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -17504,6 +18451,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M316" t="n">
+        <v>21.1166347032367</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17558,6 +18508,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M317" t="n">
+        <v>21.43158630964692</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17612,6 +18565,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M318" t="n">
+        <v>19.66251024475495</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17666,6 +18622,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M319" t="n">
+        <v>21.04193891376245</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17720,6 +18679,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M320" t="n">
+        <v>21.27304943244789</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17774,6 +18736,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M321" t="n">
+        <v>21.26357892645676</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17828,6 +18793,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M322" t="n">
+        <v>22.66408384497381</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17882,6 +18850,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M323" t="n">
+        <v>23.03802924520285</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17936,6 +18907,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M324" t="n">
+        <v>24.09900127626969</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17990,6 +18964,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M325" t="n">
+        <v>25.18861999417678</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -18044,6 +19021,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M326" t="n">
+        <v>26.05929407388646</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -18098,6 +19078,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M327" t="n">
+        <v>27.08634633275981</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -18152,6 +19135,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M328" t="n">
+        <v>25.76728269741728</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -18206,6 +19192,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M329" t="n">
+        <v>22.31964670911528</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -18260,6 +19249,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M330" t="n">
+        <v>26.6182815278551</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -18314,6 +19306,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M331" t="n">
+        <v>26.23763907853545</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -18368,6 +19363,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M332" t="n">
+        <v>27.75361670908901</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18422,6 +19420,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M333" t="n">
+        <v>29.16688909908824</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18476,6 +19477,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M334" t="n">
+        <v>29.85814476750948</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -18530,6 +19534,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M335" t="n">
+        <v>28.66518620198337</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -18584,6 +19591,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M336" t="n">
+        <v>27.67731954980165</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18638,6 +19648,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M337" t="n">
+        <v>28.87127051549605</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18692,6 +19705,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M338" t="n">
+        <v>29.1081009844387</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18746,6 +19762,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M339" t="n">
+        <v>27.95898193458448</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18800,6 +19819,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M340" t="n">
+        <v>27.51310248863975</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18854,6 +19876,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M341" t="n">
+        <v>27.37251567102447</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18908,6 +19933,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M342" t="n">
+        <v>28.30936846980723</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18962,6 +19990,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M343" t="n">
+        <v>29.16674556933514</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -19016,6 +20047,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M344" t="n">
+        <v>26.83396602288378</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -19070,6 +20104,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M345" t="n">
+        <v>25.84638197674595</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -19124,6 +20161,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M346" t="n">
+        <v>24.52222357730561</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -19178,6 +20218,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M347" t="n">
+        <v>23.12251474797975</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -19232,6 +20275,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M348" t="n">
+        <v>22.85612854478223</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19286,6 +20332,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M349" t="n">
+        <v>23.52218086473021</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19340,6 +20389,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M350" t="n">
+        <v>23.84715009765736</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19394,6 +20446,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M351" t="n">
+        <v>24.28063274241669</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19448,6 +20503,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M352" t="n">
+        <v>24.90578799979424</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19502,6 +20560,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M353" t="n">
+        <v>25.30764295552576</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19556,6 +20617,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M354" t="n">
+        <v>23.35320128509198</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19610,6 +20674,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M355" t="n">
+        <v>24.76624770106656</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19664,6 +20731,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M356" t="n">
+        <v>24.90707774748863</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -19718,6 +20788,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M357" t="n">
+        <v>26.30998098957114</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -19772,6 +20845,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M358" t="n">
+        <v>26.34033503523775</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -19826,6 +20902,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M359" t="n">
+        <v>25.98927261756185</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -19880,6 +20959,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M360" t="n">
+        <v>25.66236303595309</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -19934,6 +21016,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M361" t="n">
+        <v>28.53575351520886</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -19988,6 +21073,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M362" t="n">
+        <v>27.15482107374339</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -20042,6 +21130,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M363" t="n">
+        <v>28.12169958054949</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -20096,6 +21187,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M364" t="n">
+        <v>28.67131916311905</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -20150,6 +21244,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M365" t="n">
+        <v>29.29442681646972</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -20204,6 +21301,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M366" t="n">
+        <v>24.01043831525133</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -20258,6 +21358,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M367" t="n">
+        <v>25.17892777692273</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -20312,6 +21415,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M368" t="n">
+        <v>28.41951833716437</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -20366,6 +21472,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M369" t="n">
+        <v>29.93996804383282</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -20420,6 +21529,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M370" t="n">
+        <v>28.28612367012474</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -20474,6 +21586,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M371" t="n">
+        <v>28.12456330608148</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -20528,6 +21643,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M372" t="n">
+        <v>27.4357619020007</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -20582,6 +21700,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M373" t="n">
+        <v>26.61805286760742</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -20636,6 +21757,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M374" t="n">
+        <v>25.90877739419828</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -20690,6 +21814,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M375" t="n">
+        <v>26.15096966672728</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -20744,6 +21871,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M376" t="n">
+        <v>25.05260374441066</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -20798,6 +21928,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M377" t="n">
+        <v>28.47380017256665</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -20852,6 +21985,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M378" t="n">
+        <v>27.68932816013412</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -20906,6 +22042,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M379" t="n">
+        <v>25.79959274974602</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -20960,6 +22099,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M380" t="n">
+        <v>25.7032531128533</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -21014,6 +22156,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M381" t="n">
+        <v>24.61075202428163</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -21068,6 +22213,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M382" t="n">
+        <v>25.94734946178486</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -21122,6 +22270,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M383" t="n">
+        <v>25.90807054960352</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -21176,6 +22327,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M384" t="n">
+        <v>26.59428318940539</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -21227,8 +22381,11 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M385" t="n">
+        <v>24.16240895547835</v>
       </c>
     </row>
     <row r="386">
@@ -21284,6 +22441,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M386" t="n">
+        <v>24.31756469170007</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -21338,6 +22498,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M387" t="n">
+        <v>25.14805231550193</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -21392,6 +22555,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M388" t="n">
+        <v>25.58560278319223</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -21446,6 +22612,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M389" t="n">
+        <v>24.48957290742426</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -21500,6 +22669,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M390" t="n">
+        <v>24.70647651884916</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -21554,6 +22726,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M391" t="n">
+        <v>24.2392151357365</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -21608,6 +22783,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M392" t="n">
+        <v>23.02422821701696</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -21662,6 +22840,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M393" t="n">
+        <v>23.76740475204301</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -21716,6 +22897,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M394" t="n">
+        <v>23.72582331916091</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -21770,6 +22954,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M395" t="n">
+        <v>22.86909740910489</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -21824,6 +23011,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M396" t="n">
+        <v>22.83843266913011</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -21878,6 +23068,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M397" t="n">
+        <v>22.98694627401641</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -21932,6 +23125,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M398" t="n">
+        <v>21.61169330705898</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -21986,6 +23182,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M399" t="n">
+        <v>21.02337540580661</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -22040,6 +23239,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M400" t="n">
+        <v>20.97864725895973</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -22094,6 +23296,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M401" t="n">
+        <v>20.49813652001095</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -22148,6 +23353,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M402" t="n">
+        <v>19.08883636258511</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -22202,6 +23410,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M403" t="n">
+        <v>19.76664861897047</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -22256,6 +23467,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M404" t="n">
+        <v>19.11157339842969</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -22310,6 +23524,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M405" t="n">
+        <v>19.07959208683627</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -22364,6 +23581,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M406" t="n">
+        <v>17.05309632838726</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -22418,6 +23638,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M407" t="n">
+        <v>25.49137989528033</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -22472,6 +23695,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M408" t="n">
+        <v>24.32008202315442</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -22526,6 +23752,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M409" t="n">
+        <v>23.57613150474676</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -22580,6 +23809,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M410" t="n">
+        <v>23.92897675903807</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -22634,6 +23866,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M411" t="n">
+        <v>23.11595384660365</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -22688,6 +23923,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M412" t="n">
+        <v>22.38434856156845</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -22742,6 +23980,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M413" t="n">
+        <v>21.43249962516343</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -22796,6 +24037,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M414" t="n">
+        <v>20.04232072038448</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -22850,6 +24094,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M415" t="n">
+        <v>19.5587736369674</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -22901,8 +24148,11 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M416" t="n">
+        <v>17.63823945216974</v>
       </c>
     </row>
     <row r="417">
@@ -22958,6 +24208,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M417" t="n">
+        <v>17.07810523109308</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -23009,8 +24262,11 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M418" t="n">
+        <v>15.86603856516696</v>
       </c>
     </row>
     <row r="419">
@@ -23066,6 +24322,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M419" t="n">
+        <v>17.85185606148136</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -23120,6 +24379,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M420" t="n">
+        <v>14.17544600902512</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -23171,8 +24433,11 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M421" t="n">
+        <v>12.84103607189704</v>
       </c>
     </row>
     <row r="422">
@@ -23228,6 +24493,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M422" t="n">
+        <v>14.61232161792166</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -23282,6 +24550,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M423" t="n">
+        <v>13.28829058384667</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -23336,6 +24607,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M424" t="n">
+        <v>9.904656101494366</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -23390,6 +24664,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M425" t="n">
+        <v>9.133876505840547</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -23441,8 +24718,11 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>Visited</t>
-        </is>
+          <t>Yet-To-Visit</t>
+        </is>
+      </c>
+      <c r="M426" t="n">
+        <v>29.05523966240036</v>
       </c>
     </row>
     <row r="427">
@@ -23498,6 +24778,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M427" t="n">
+        <v>27.50778957777181</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -23552,6 +24835,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M428" t="n">
+        <v>27.32123848851438</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -23606,6 +24892,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M429" t="n">
+        <v>26.26569289403542</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -23660,6 +24949,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M430" t="n">
+        <v>25.2356772225187</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -23714,6 +25006,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M431" t="n">
+        <v>25.76911704711135</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -23768,6 +25063,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M432" t="n">
+        <v>24.22042920169714</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -23822,6 +25120,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M433" t="n">
+        <v>24.37628017925434</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -23876,6 +25177,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M434" t="n">
+        <v>22.67097104987755</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -23930,6 +25234,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M435" t="n">
+        <v>20.9997254573505</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -23984,6 +25291,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M436" t="n">
+        <v>20.36214801669311</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -24038,6 +25348,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M437" t="n">
+        <v>19.48567703369889</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -24092,6 +25405,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M438" t="n">
+        <v>18.86654740039713</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -24146,6 +25462,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M439" t="n">
+        <v>17.95481754332335</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -24200,6 +25519,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M440" t="n">
+        <v>16.89056898272674</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -24254,6 +25576,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M441" t="n">
+        <v>21.46287219505862</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -24308,6 +25633,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M442" t="n">
+        <v>21.93703316243614</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -24362,6 +25690,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M443" t="n">
+        <v>29.99928367956928</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -24416,6 +25747,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M444" t="n">
+        <v>29.81832951060472</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -24470,6 +25804,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M445" t="n">
+        <v>29.40149944282145</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -24524,6 +25861,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M446" t="n">
+        <v>28.97905386362968</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -24578,6 +25918,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M447" t="n">
+        <v>28.08444112694341</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -24632,6 +25975,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M448" t="n">
+        <v>27.53459136566501</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -24686,6 +26032,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M449" t="n">
+        <v>28.48181949891748</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -24740,6 +26089,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M450" t="n">
+        <v>28.13823405545685</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -24794,6 +26146,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M451" t="n">
+        <v>26.56179040558015</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -24848,6 +26203,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M452" t="n">
+        <v>24.2858754729419</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -24902,6 +26260,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M453" t="n">
+        <v>24.00657952944742</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -24956,6 +26317,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M454" t="n">
+        <v>25.58553846014587</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -25010,6 +26374,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M455" t="n">
+        <v>24.77689130377414</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -25064,6 +26431,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M456" t="n">
+        <v>22.64920589134545</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -25118,6 +26488,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M457" t="n">
+        <v>22.74950632687398</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -25172,6 +26545,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M458" t="n">
+        <v>20.85950331255367</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -25226,6 +26602,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M459" t="n">
+        <v>27.77608930911108</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -25280,6 +26659,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M460" t="n">
+        <v>28.77511790724067</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -25334,6 +26716,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M461" t="n">
+        <v>29.30899183858939</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -25388,6 +26773,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M462" t="n">
+        <v>29.71037795203631</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -25442,6 +26830,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M463" t="n">
+        <v>29.06384883745478</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -25496,6 +26887,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M464" t="n">
+        <v>27.16378570364092</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -25550,6 +26944,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M465" t="n">
+        <v>25.14819656878178</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -25604,6 +27001,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M466" t="n">
+        <v>28.50067441381246</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -25658,6 +27058,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M467" t="n">
+        <v>28.02748415189218</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -25712,6 +27115,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M468" t="n">
+        <v>29.47979261449043</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -25766,6 +27172,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M469" t="n">
+        <v>23.13339101560195</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -25820,6 +27229,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M470" t="n">
+        <v>21.93134298240381</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -25874,6 +27286,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M471" t="n">
+        <v>20.75201765431733</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -25928,6 +27343,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M472" t="n">
+        <v>21.05649242796726</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -25979,8 +27397,11 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M473" t="n">
+        <v>20.15635540770628</v>
       </c>
     </row>
     <row r="474">
@@ -26036,6 +27457,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M474" t="n">
+        <v>20.47286674062645</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -26090,6 +27514,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M475" t="n">
+        <v>22.90729300168806</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -26144,6 +27571,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M476" t="n">
+        <v>21.76668620245216</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -26198,6 +27628,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M477" t="n">
+        <v>21.43623063346061</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -26252,6 +27685,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M478" t="n">
+        <v>18.49496679375969</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -26306,6 +27742,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M479" t="n">
+        <v>20.75361092715742</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -26360,6 +27799,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M480" t="n">
+        <v>19.48727274438213</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -26414,6 +27856,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M481" t="n">
+        <v>18.66005481397642</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -26468,6 +27913,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M482" t="n">
+        <v>17.3450640840284</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -26522,6 +27970,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M483" t="n">
+        <v>17.13037593315289</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -26576,6 +28027,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M484" t="n">
+        <v>16.24012670140784</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -26630,6 +28084,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M485" t="n">
+        <v>16.44812824159836</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -26684,6 +28141,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M486" t="n">
+        <v>17.28146144029213</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -26738,6 +28198,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M487" t="n">
+        <v>15.75576739596651</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -26792,6 +28255,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M488" t="n">
+        <v>13.5262010357223</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -26846,6 +28312,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M489" t="n">
+        <v>11.98788102297784</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -26900,6 +28369,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M490" t="n">
+        <v>14.13821422553422</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -26954,6 +28426,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M491" t="n">
+        <v>15.66544990811584</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -27008,6 +28483,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M492" t="n">
+        <v>15.49938837662101</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -27062,6 +28540,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M493" t="n">
+        <v>13.80810244774785</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -27116,6 +28597,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M494" t="n">
+        <v>13.15963963438322</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -27170,6 +28654,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M495" t="n">
+        <v>15.14625378215392</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -27224,6 +28711,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M496" t="n">
+        <v>13.93238518899232</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -27275,8 +28765,11 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M497" t="n">
+        <v>11.19060694632158</v>
       </c>
     </row>
     <row r="498">
@@ -27329,8 +28822,11 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M498" t="n">
+        <v>7.90270692025283</v>
       </c>
     </row>
     <row r="499">
@@ -27386,6 +28882,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M499" t="n">
+        <v>7.412491143401486</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -27440,6 +28939,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M500" t="n">
+        <v>19.07864426981639</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -27494,6 +28996,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M501" t="n">
+        <v>18.27656046323366</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -27548,6 +29053,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M502" t="n">
+        <v>18.75229988185852</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -27602,6 +29110,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M503" t="n">
+        <v>19.76201345215397</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -27656,6 +29167,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M504" t="n">
+        <v>16.98459868296503</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -27710,6 +29224,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M505" t="n">
+        <v>15.87709873407402</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -27764,6 +29281,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M506" t="n">
+        <v>15.2311517469856</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -27818,6 +29338,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M507" t="n">
+        <v>16.09957207421386</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -27872,6 +29395,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M508" t="n">
+        <v>17.70821573149375</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -27926,6 +29452,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M509" t="n">
+        <v>18.97605672293389</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -27980,6 +29509,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M510" t="n">
+        <v>17.6998284526904</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -28034,6 +29566,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M511" t="n">
+        <v>16.68573822786068</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -28088,6 +29623,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M512" t="n">
+        <v>18.09052857757171</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -28142,6 +29680,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M513" t="n">
+        <v>19.34177287646813</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -28196,6 +29737,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M514" t="n">
+        <v>9.809461239211748</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -28250,6 +29794,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M515" t="n">
+        <v>11.5988833427601</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -28304,6 +29851,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M516" t="n">
+        <v>13.6242928069468</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -28358,6 +29908,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M517" t="n">
+        <v>14.97587875376497</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -28412,6 +29965,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M518" t="n">
+        <v>15.39988483699621</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -28466,6 +30022,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M519" t="n">
+        <v>16.04532081959626</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -28520,6 +30079,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M520" t="n">
+        <v>16.99285709516013</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -28574,6 +30136,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M521" t="n">
+        <v>14.65891551601134</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -28628,6 +30193,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M522" t="n">
+        <v>13.43264483985192</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -28679,8 +30247,11 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M523" t="n">
+        <v>12.37318376670407</v>
       </c>
     </row>
     <row r="524">
@@ -28736,6 +30307,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M524" t="n">
+        <v>14.74180296825849</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -28790,6 +30364,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M525" t="n">
+        <v>15.03707647968601</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -28844,6 +30421,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M526" t="n">
+        <v>13.91918214555615</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -28898,6 +30478,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M527" t="n">
+        <v>16.37945344528448</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -28952,6 +30535,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M528" t="n">
+        <v>17.38139257487982</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -29006,6 +30592,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M529" t="n">
+        <v>18.82916968496487</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -29060,6 +30649,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M530" t="n">
+        <v>19.69895397861425</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -29114,6 +30706,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M531" t="n">
+        <v>18.81588922757473</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -29168,6 +30763,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M532" t="n">
+        <v>18.08006628422731</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -29222,6 +30820,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M533" t="n">
+        <v>17.20346719446128</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -29276,6 +30877,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M534" t="n">
+        <v>15.92716222003513</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -29330,6 +30934,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M535" t="n">
+        <v>15.56276055898193</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -29384,6 +30991,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M536" t="n">
+        <v>13.95915543905649</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -29438,6 +31048,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M537" t="n">
+        <v>15.41634099043513</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -29492,6 +31105,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M538" t="n">
+        <v>16.09192795581892</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -29546,6 +31162,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M539" t="n">
+        <v>17.23246123405444</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -29600,6 +31219,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M540" t="n">
+        <v>14.45440938242152</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -29654,6 +31276,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M541" t="n">
+        <v>17.2422839697817</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -29708,6 +31333,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M542" t="n">
+        <v>19.42261002894756</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -29762,6 +31390,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M543" t="n">
+        <v>19.18388382313721</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -29816,6 +31447,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M544" t="n">
+        <v>18.29335711973038</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -29870,6 +31504,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M545" t="n">
+        <v>16.50715063488155</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -29924,6 +31561,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M546" t="n">
+        <v>16.74478478110158</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -29978,6 +31618,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M547" t="n">
+        <v>17.70170233192133</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -30032,6 +31675,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M548" t="n">
+        <v>19.36022959743782</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -30086,6 +31732,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M549" t="n">
+        <v>15.02043243328911</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -30140,6 +31789,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M550" t="n">
+        <v>16.40176874513877</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -30194,6 +31846,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M551" t="n">
+        <v>16.04398211145925</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -30248,6 +31903,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M552" t="n">
+        <v>18.28770110035746</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -30302,6 +31960,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M553" t="n">
+        <v>18.02636550659431</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -30356,6 +32017,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M554" t="n">
+        <v>19.3012021405069</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -30410,6 +32074,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M555" t="n">
+        <v>20.35792499729934</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -30464,6 +32131,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M556" t="n">
+        <v>20.20906388291517</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -30518,6 +32188,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M557" t="n">
+        <v>28.93886074457991</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -30572,6 +32245,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M558" t="n">
+        <v>29.46870555866784</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -30626,6 +32302,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M559" t="n">
+        <v>29.62244281190928</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -30680,6 +32359,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M560" t="n">
+        <v>29.15412059261757</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -30734,6 +32416,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M561" t="n">
+        <v>28.26873093183553</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -30788,6 +32473,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M562" t="n">
+        <v>27.20588745812154</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -30842,6 +32530,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M563" t="n">
+        <v>29.93144131211882</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -30896,6 +32587,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M564" t="n">
+        <v>28.45609919675351</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -30950,6 +32644,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M565" t="n">
+        <v>28.90758194600896</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -31004,6 +32701,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M566" t="n">
+        <v>27.00473736635823</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -31058,6 +32758,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M567" t="n">
+        <v>27.05495854976445</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -31112,6 +32815,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M568" t="n">
+        <v>26.18118794277045</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -31166,6 +32872,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M569" t="n">
+        <v>25.58748777271705</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -31220,6 +32929,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M570" t="n">
+        <v>25.26942767350889</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -31274,6 +32986,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M571" t="n">
+        <v>26.22543504821678</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -31328,6 +33043,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M572" t="n">
+        <v>27.59424420433766</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -31382,6 +33100,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M573" t="n">
+        <v>25.6598852141087</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -31436,6 +33157,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M574" t="n">
+        <v>24.02188589044867</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -31490,6 +33214,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M575" t="n">
+        <v>23.01447930827423</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -31544,6 +33271,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M576" t="n">
+        <v>22.62382281631042</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -31598,6 +33328,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M577" t="n">
+        <v>22.42240993254104</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -31652,6 +33385,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M578" t="n">
+        <v>22.81673719435718</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -31706,6 +33442,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M579" t="n">
+        <v>24.2209279096094</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -31760,6 +33499,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M580" t="n">
+        <v>25.58825048137259</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -31814,6 +33556,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M581" t="n">
+        <v>26.61785104516547</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -31868,6 +33613,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M582" t="n">
+        <v>25.05846456750703</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -31922,6 +33670,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M583" t="n">
+        <v>23.25183858084851</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -31976,6 +33727,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M584" t="n">
+        <v>22.35903133862535</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -32030,6 +33784,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M585" t="n">
+        <v>21.35665906712632</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -32084,6 +33841,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M586" t="n">
+        <v>21.19824728898447</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -32138,6 +33898,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M587" t="n">
+        <v>20.02442589916821</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -32192,6 +33955,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M588" t="n">
+        <v>21.68547941604694</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -32246,6 +34012,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M589" t="n">
+        <v>23.18068755711153</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -32300,6 +34069,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M590" t="n">
+        <v>24.53240232375914</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -32354,6 +34126,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M591" t="n">
+        <v>23.84524350416906</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -32408,6 +34183,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M592" t="n">
+        <v>22.42591798952967</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -32462,6 +34240,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M593" t="n">
+        <v>21.76509751745117</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -32516,6 +34297,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M594" t="n">
+        <v>29.67824559832944</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -32570,6 +34354,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M595" t="n">
+        <v>28.42965591938175</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -32624,6 +34411,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M596" t="n">
+        <v>27.80815904742409</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -32678,6 +34468,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M597" t="n">
+        <v>26.90202191671301</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -32732,6 +34525,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M598" t="n">
+        <v>28.00851259231697</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -32786,6 +34582,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M599" t="n">
+        <v>28.74215899715022</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -32840,6 +34639,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M600" t="n">
+        <v>27.11761016760367</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -32894,6 +34696,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M601" t="n">
+        <v>25.39141796650479</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -32948,6 +34753,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M602" t="n">
+        <v>26.8332312365004</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -33002,6 +34810,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M603" t="n">
+        <v>26.44119655671054</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -33056,6 +34867,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M604" t="n">
+        <v>27.80934204801196</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -33110,6 +34924,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M605" t="n">
+        <v>29.16047619689769</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -33164,6 +34981,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M606" t="n">
+        <v>29.65322986614417</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -33218,6 +35038,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M607" t="n">
+        <v>20.36922364266298</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -33272,6 +35095,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M608" t="n">
+        <v>21.8961766898187</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -33326,6 +35152,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M609" t="n">
+        <v>24.36380060151562</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -33380,6 +35209,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M610" t="n">
+        <v>25.75740735202853</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -33434,6 +35266,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M611" t="n">
+        <v>25.43354474618735</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -33488,6 +35323,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M612" t="n">
+        <v>25.15602236205367</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -33542,6 +35380,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M613" t="n">
+        <v>23.44809242178786</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -33596,6 +35437,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M614" t="n">
+        <v>23.75974332328883</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -33650,6 +35494,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M615" t="n">
+        <v>23.17779656754761</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -33704,6 +35551,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M616" t="n">
+        <v>22.92937105518281</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -33758,6 +35608,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M617" t="n">
+        <v>22.30606916488133</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -33812,6 +35665,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M618" t="n">
+        <v>27.33984870785502</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -33866,6 +35722,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M619" t="n">
+        <v>28.99354098368756</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -33920,6 +35779,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M620" t="n">
+        <v>29.74885677630238</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -33974,6 +35836,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M621" t="n">
+        <v>29.84385044810753</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -34028,6 +35893,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M622" t="n">
+        <v>29.63261762429437</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -34082,6 +35950,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M623" t="n">
+        <v>28.13112852360684</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -34136,6 +36007,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M624" t="n">
+        <v>28.185142174474</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -34190,6 +36064,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M625" t="n">
+        <v>28.42423733969001</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -34244,6 +36121,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M626" t="n">
+        <v>29.34429604529147</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -34298,6 +36178,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M627" t="n">
+        <v>28.70847798758884</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -34352,6 +36235,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M628" t="n">
+        <v>28.16141185613556</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -34406,6 +36292,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M629" t="n">
+        <v>26.80652104139329</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -34460,6 +36349,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M630" t="n">
+        <v>25.59354276215053</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -34514,6 +36406,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M631" t="n">
+        <v>26.88351285748954</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -34568,6 +36463,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M632" t="n">
+        <v>26.30441817875733</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -34622,6 +36520,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M633" t="n">
+        <v>24.93101409552351</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -34676,6 +36577,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M634" t="n">
+        <v>24.9923681816853</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -34730,6 +36634,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M635" t="n">
+        <v>24.12513579597825</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -34784,6 +36691,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M636" t="n">
+        <v>26.72572651355522</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -34838,6 +36748,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M637" t="n">
+        <v>26.45622897558391</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -34892,6 +36805,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M638" t="n">
+        <v>24.17151647028901</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -34946,6 +36862,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M639" t="n">
+        <v>25.92528519822732</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -35000,6 +36919,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M640" t="n">
+        <v>27.29249430633548</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -35054,6 +36976,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M641" t="n">
+        <v>25.76761707377076</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -35108,6 +37033,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M642" t="n">
+        <v>26.46440944013403</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -35162,6 +37090,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M643" t="n">
+        <v>24.71999779665306</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -35216,6 +37147,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M644" t="n">
+        <v>24.50111258600396</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -35270,6 +37204,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M645" t="n">
+        <v>22.9167291786595</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -35324,6 +37261,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M646" t="n">
+        <v>23.88358738775607</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -35378,6 +37318,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M647" t="n">
+        <v>20.48036304668636</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -35432,6 +37375,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M648" t="n">
+        <v>21.6162279318257</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -35486,6 +37432,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M649" t="n">
+        <v>22.16691442383555</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -35540,6 +37489,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M650" t="n">
+        <v>20.85654945564151</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -35594,6 +37546,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M651" t="n">
+        <v>20.78297507037258</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -35648,6 +37603,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M652" t="n">
+        <v>21.22986678027031</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -35702,6 +37660,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M653" t="n">
+        <v>22.73891357761245</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -35756,6 +37717,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M654" t="n">
+        <v>23.70433132791348</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -35810,6 +37774,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M655" t="n">
+        <v>23.38322991001018</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -35864,6 +37831,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M656" t="n">
+        <v>21.72463342431513</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -35918,6 +37888,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M657" t="n">
+        <v>20.50724673238682</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -35972,6 +37945,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M658" t="n">
+        <v>19.40889185007586</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -36026,6 +38002,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M659" t="n">
+        <v>20.11986942454979</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -36080,6 +38059,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M660" t="n">
+        <v>21.76055061814959</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -36134,6 +38116,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M661" t="n">
+        <v>21.12945934649132</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -36188,6 +38173,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M662" t="n">
+        <v>22.20474558173778</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -36242,6 +38230,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M663" t="n">
+        <v>20.91069768381535</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -36296,6 +38287,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M664" t="n">
+        <v>21.97401776817623</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -36350,6 +38344,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M665" t="n">
+        <v>21.97156809809236</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -36404,6 +38401,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M666" t="n">
+        <v>21.99538693463068</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -36458,6 +38458,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M667" t="n">
+        <v>22.71013704061741</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -36512,6 +38515,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M668" t="n">
+        <v>24.06721231592282</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -36566,6 +38572,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M669" t="n">
+        <v>23.44137214049177</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -36620,6 +38629,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M670" t="n">
+        <v>22.75959672530398</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -36674,6 +38686,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M671" t="n">
+        <v>23.43116721809297</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -36728,6 +38743,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M672" t="n">
+        <v>24.63616994245355</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -36782,6 +38800,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M673" t="n">
+        <v>25.30894355116765</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -36836,6 +38857,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M674" t="n">
+        <v>25.95319117760931</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -36890,6 +38914,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M675" t="n">
+        <v>25.00090854647755</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -36944,6 +38971,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M676" t="n">
+        <v>26.19583429362044</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -36998,6 +39028,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M677" t="n">
+        <v>24.80053005721493</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -37052,6 +39085,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M678" t="n">
+        <v>26.42067993568841</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -37106,6 +39142,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M679" t="n">
+        <v>28.04051154768783</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -37160,6 +39199,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M680" t="n">
+        <v>28.43024177932362</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -37214,6 +39256,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M681" t="n">
+        <v>29.02873873980628</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -37268,6 +39313,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M682" t="n">
+        <v>20.28106314236402</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -37322,6 +39370,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M683" t="n">
+        <v>21.87756885710132</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -37376,6 +39427,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M684" t="n">
+        <v>22.80838972548801</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -37430,6 +39484,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M685" t="n">
+        <v>23.79885511457351</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -37484,6 +39541,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M686" t="n">
+        <v>25.52887613026487</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -37538,6 +39598,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M687" t="n">
+        <v>23.3049733357698</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -37592,6 +39655,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M688" t="n">
+        <v>19.29453406901645</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -37646,6 +39712,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M689" t="n">
+        <v>22.17983665520607</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -37700,6 +39769,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M690" t="n">
+        <v>23.96297463342833</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -37754,6 +39826,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M691" t="n">
+        <v>24.73633344458392</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -37808,6 +39883,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M692" t="n">
+        <v>26.07024593549826</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -37862,6 +39940,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M693" t="n">
+        <v>26.92484966030328</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -37916,6 +39997,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M694" t="n">
+        <v>28.2966683072143</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -37970,6 +40054,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M695" t="n">
+        <v>29.43014892705584</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -38024,6 +40111,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M696" t="n">
+        <v>28.53233528206865</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -38078,6 +40168,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M697" t="n">
+        <v>29.4425320264606</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -38132,6 +40225,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M698" t="n">
+        <v>28.36656752339218</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -38186,6 +40282,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M699" t="n">
+        <v>27.6228449174116</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -38240,6 +40339,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M700" t="n">
+        <v>27.29417085086163</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -38294,6 +40396,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M701" t="n">
+        <v>27.11672557262809</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -38348,6 +40453,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M702" t="n">
+        <v>26.62344623262203</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -38402,6 +40510,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M703" t="n">
+        <v>28.94908432415031</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -38456,6 +40567,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M704" t="n">
+        <v>27.93522022737128</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -38510,6 +40624,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M705" t="n">
+        <v>27.44264852255304</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -38564,6 +40681,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M706" t="n">
+        <v>27.24395655058866</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -38618,6 +40738,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M707" t="n">
+        <v>28.21549959755675</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -38672,6 +40795,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M708" t="n">
+        <v>26.58568819469936</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -38726,6 +40852,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M709" t="n">
+        <v>27.55366270537511</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -38780,6 +40909,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M710" t="n">
+        <v>29.46228783721853</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -38834,6 +40966,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M711" t="n">
+        <v>21.01224478301647</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -38888,6 +41023,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M712" t="n">
+        <v>26.29442104171142</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -38942,6 +41080,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M713" t="n">
+        <v>17.57203848624583</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -38996,6 +41137,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M714" t="n">
+        <v>0.678103678796332</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -39050,6 +41194,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M715" t="n">
+        <v>17.0611134552363</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -39104,6 +41251,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M716" t="n">
+        <v>22.53367142006307</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -39158,6 +41308,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M717" t="n">
+        <v>17.2465728413712</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -39211,6 +41364,9 @@
         <is>
           <t>Yet-To-Visit</t>
         </is>
+      </c>
+      <c r="M718" t="n">
+        <v>29.20240265412918</v>
       </c>
     </row>
   </sheetData>
